--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/26_Diyarbakır_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/26_Diyarbakır_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1079139-2A44-4AB6-8775-DBC11BFB96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E073DC-8A88-4A42-AB6B-FBA1F1A01CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{78E9DFF8-4B18-4E1C-98AB-8B0D887FFF2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{15DD7D91-D885-4190-9826-B52FF457DDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -787,13 +787,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C632346A-8CBA-450C-8EFF-E1BAC737394B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C8254C5E-A0ED-4260-B05D-24D405B2B67A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8AD0BF62-9ED2-481D-BD7F-DE5CF2EAB20A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{844D0064-7C07-42F0-8432-9C0ADBFB9F0D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B4C71EFA-52E9-461E-B415-7E53306EBC13}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{E778E3DF-CEF5-4CE8-B99F-726FFA4D6CBE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{41052FDF-D345-40F6-9A12-410CBCFB54C3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{93FD468A-790C-49E1-BD0A-96E409A4A9E9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4E4368C8-5896-43A3-A345-27BA217D6821}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B696498E-1A3C-4965-B420-E26A4543B7CC}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{B5601AFA-2BA6-40DC-9292-B7103F911AAD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{26C7E6EF-0DE5-46A1-94F6-F06B95FB8034}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9B284F0B-AAA3-4938-B5D3-52A5FEE510B8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{53FF6FF3-0DE2-49AC-A994-860BB7203C76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,7 +1163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176DAAA2-494D-4EE2-8BA4-04045AE23922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90E6439-FAA5-41CA-B3D3-5F4153F0312A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2448,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CDE5D2-6FCF-4823-92CA-306D8E36A60F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CD58D9-FF29-425A-8B84-A2337FEFDE2C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3737,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42121617-3FAA-45FE-AE06-A82D892A8B44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7950AD9A-E965-46E8-AD97-FD24F5ABAE2D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5024,7 +5024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E2591D-1004-49E7-9F31-2B0357661715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C15896-2D33-499A-97B0-A32BFC905324}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6311,7 +6311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F8F2FD-CAB5-4A99-ABE2-599C70700220}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA442009-C0D0-4A31-8BD5-3D282762E5EC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7594,7 +7594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C83D57-0D97-4DEE-9DB6-C8DCBFD3BEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D0C2CB-4A91-433C-96A3-FB6D60995198}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
